--- a/medicine/Enfance/Donald_Hall/Donald_Hall.xlsx
+++ b/medicine/Enfance/Donald_Hall/Donald_Hall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donald Andrew Hall Jr., né le 20 septembre 1928 à Hamden dans le Connecticut et mort le 23 juin 2018 à Wilmot dans le New Hampshire[1],[2], est un poète et écrivain américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donald Andrew Hall Jr., né le 20 septembre 1928 à Hamden dans le Connecticut et mort le 23 juin 2018 à Wilmot dans le New Hampshire est un poète et écrivain américain.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ox-cart man, 1979
 - traduit en français sous le titre Quand le fermier se rendait au marché, par Catherine Deloraine, ill. de Barbara Cooney, Paris, Éditions Flammarion, 1981, 40 p.  (ISBN 2-08-171038-2)</t>
@@ -568,9 +584,11 @@
           <t>Principales récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Newdigate[3] 1952
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Newdigate 1952
 Bourse Guggenheim 1963-64 &amp; 1973-74
 Médaille Robert Frost 1991
 Ruth Lilly Poetry Prize (en) 1994
